--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 48356-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 48356-2019.xlsx", "A 48356-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 48356-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 48356-2019.png", "A 48356-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 48356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 48356-2019.docx", "A 48356-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 48356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 48356-2019.docx", "A 48356-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 48356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 48356-2019.docx", "A 48356-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 48356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 48356-2019.docx", "A 48356-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,27 +725,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 21590-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 21590-2019.xlsx", "A 21590-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 21590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 21590-2019.png", "A 21590-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 21590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 21590-2019.docx", "A 21590-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 21590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 21590-2019.docx", "A 21590-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 21590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 21590-2019.docx", "A 21590-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 21590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 21590-2019.docx", "A 21590-2019")</f>
         <v/>
       </c>
     </row>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29487-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29487-2023.xlsx", "A 29487-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29487-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29487-2023.png", "A 29487-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29487-2023.docx", "A 29487-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29487-2023.docx", "A 29487-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29487-2023.docx", "A 29487-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29487-2023.docx", "A 29487-2023")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 39025-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 39025-2020.xlsx", "A 39025-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 39025-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 39025-2020.png", "A 39025-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 39025-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 39025-2020.docx", "A 39025-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 39025-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 39025-2020.docx", "A 39025-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 39025-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 39025-2020.docx", "A 39025-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 39025-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 39025-2020.docx", "A 39025-2020")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,31 +986,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 57325-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 57325-2020.xlsx", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 57325-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 57325-2020.png", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/knärot/A 57325-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/knärot/A 57325-2020.png", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 57325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 57325-2020.docx", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 57325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 57325-2020.docx", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 57325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 57325-2020.docx", "A 57325-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 57325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 57325-2020.docx", "A 57325-2020")</f>
         <v/>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1075,27 +1075,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 33021-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 33021-2019.xlsx", "A 33021-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 33021-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 33021-2019.png", "A 33021-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 33021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 33021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 33021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 33021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 39346-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 39346-2019.xlsx", "A 39346-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 39346-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 39346-2019.png", "A 39346-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 39346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 39346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 39346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 39346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,31 +1245,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 68707-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 68707-2021.xlsx", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 68707-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 68707-2021.png", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/knärot/A 68707-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/knärot/A 68707-2021.png", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 68707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 68707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 68707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 68707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1334,27 +1334,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 25806-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 25806-2022.xlsx", "A 25806-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 25806-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 25806-2022.png", "A 25806-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 25806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 25806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 25806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 25806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1419,27 +1419,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 236-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 236-2023.xlsx", "A 236-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 236-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 236-2023.png", "A 236-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1504,27 +1504,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 16904-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 16904-2023.xlsx", "A 16904-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 16904-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 16904-2023.png", "A 16904-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 16904-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 16904-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 16904-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 16904-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,27 +1589,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29688-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29688-2023.xlsx", "A 29688-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29688-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29688-2023.png", "A 29688-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29688-2023.docx", "A 29688-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29688-2023.docx", "A 29688-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29688-2023.docx", "A 29688-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29688-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29688-2023.docx", "A 29688-2023")</f>
         <v/>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43649</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43690</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44733</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45033</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45107</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33021-2019</t>
+          <t>A 29688-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43649</v>
+        <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1061,558 +1061,559 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Druvfingersvamp
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29688-2023.xlsx", "A 29688-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29688-2023.png", "A 29688-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29688-2023.docx", "A 29688-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29688-2023.docx", "A 29688-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29688-2023.docx", "A 29688-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29688-2023.docx", "A 29688-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 33021-2019</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43649</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 33021-2019.xlsx", "A 33021-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 33021-2019.png", "A 33021-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 33021-2019.docx", "A 33021-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 39346-2019</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43690</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>6.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Klippfrullania</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 39346-2019.xlsx", "A 39346-2019")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 39346-2019.png", "A 39346-2019")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 39346-2019.docx", "A 39346-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 68707-2021</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44529</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>10.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 68707-2021.xlsx", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 68707-2021.png", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/knärot/A 68707-2021.png", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 68707-2021.docx", "A 68707-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 25806-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44733</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>31.2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Duvhök</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 25806-2022.xlsx", "A 25806-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 25806-2022.png", "A 25806-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 25806-2022.docx", "A 25806-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 236-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44928</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>16.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 236-2023.xlsx", "A 236-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 236-2023.png", "A 236-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 236-2023.docx", "A 236-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 16904-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45033</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UDDEVALLA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1.3</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Mörk husmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 16904-2023.xlsx", "A 16904-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 16904-2023.png", "A 16904-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 16904-2023.docx", "A 16904-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 29688-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45107</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>UDDEVALLA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 29688-2023.xlsx", "A 29688-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 29688-2023.png", "A 29688-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 29688-2023.docx", "A 29688-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 29688-2023.docx", "A 29688-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 29688-2023.docx", "A 29688-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 29688-2023.docx", "A 29688-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1623,7 +1624,7 @@
         <v>43334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1681,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1738,7 @@
         <v>43381</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1794,7 +1795,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1851,7 +1852,7 @@
         <v>43388</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1908,7 +1909,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1965,7 +1966,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2022,7 +2023,7 @@
         <v>43424</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2079,7 +2080,7 @@
         <v>43430</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2137,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2194,7 @@
         <v>43438</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2256,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2313,7 @@
         <v>43443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2370,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2427,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2484,7 @@
         <v>43452</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2540,7 +2541,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2597,7 +2598,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2654,7 +2655,7 @@
         <v>43461</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2711,7 +2712,7 @@
         <v>43467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2768,7 +2769,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2825,7 +2826,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2882,7 +2883,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2939,7 +2940,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2996,7 +2997,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3058,7 +3059,7 @@
         <v>43488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3115,7 +3116,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3172,7 +3173,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3229,7 +3230,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3286,7 +3287,7 @@
         <v>43508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3343,7 +3344,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3400,7 +3401,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3457,7 +3458,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3514,7 +3515,7 @@
         <v>43531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3571,7 +3572,7 @@
         <v>43536</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3628,7 +3629,7 @@
         <v>43545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3685,7 +3686,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3743,7 @@
         <v>43556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3800,7 @@
         <v>43559</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3857,7 @@
         <v>43569</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3914,7 @@
         <v>43572</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3971,7 @@
         <v>43574</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4028,7 @@
         <v>43591</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4085,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4142,7 @@
         <v>43598</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4199,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4256,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4313,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4370,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4427,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4484,7 @@
         <v>43636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,7 +4541,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,7 +4598,7 @@
         <v>43654</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4654,7 +4655,7 @@
         <v>43665</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4711,7 +4712,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4769,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4831,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4888,7 @@
         <v>43717</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,7 +4945,7 @@
         <v>43726</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5002,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5059,7 @@
         <v>43733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5116,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5173,7 @@
         <v>43735</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5230,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,7 +5287,7 @@
         <v>43790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5343,7 +5344,7 @@
         <v>43795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5400,7 +5401,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5458,7 @@
         <v>43810</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5515,7 @@
         <v>43812</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5571,7 +5572,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,7 +5629,7 @@
         <v>43846</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5685,7 +5686,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,7 +5748,7 @@
         <v>43851</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,7 +5805,7 @@
         <v>43864</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5867,7 @@
         <v>43866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5924,7 @@
         <v>43878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5981,7 @@
         <v>43887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6038,7 @@
         <v>43892</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6095,7 @@
         <v>43894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6152,7 @@
         <v>43899</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6213,7 +6214,7 @@
         <v>43906</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6271,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6328,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6385,7 @@
         <v>43928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6442,7 @@
         <v>43955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6504,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6565,7 +6566,7 @@
         <v>43991</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6622,7 +6623,7 @@
         <v>43998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6679,7 +6680,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,7 +6737,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6793,7 +6794,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6850,7 +6851,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6907,7 +6908,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6964,7 +6965,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7021,7 +7022,7 @@
         <v>44036</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7078,7 +7079,7 @@
         <v>44046</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7135,7 +7136,7 @@
         <v>44060</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7192,7 +7193,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7249,7 +7250,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7306,7 +7307,7 @@
         <v>44133</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7363,7 +7364,7 @@
         <v>44147</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7420,7 +7421,7 @@
         <v>44154</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7477,7 +7478,7 @@
         <v>44161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7535,7 @@
         <v>44168</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7592,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7649,7 @@
         <v>44169</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7706,7 @@
         <v>44175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7763,7 @@
         <v>44177</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7820,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,7 +7877,7 @@
         <v>44181</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7933,7 +7934,7 @@
         <v>44204</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7990,7 +7991,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8047,7 +8048,7 @@
         <v>44210</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8104,7 +8105,7 @@
         <v>44211</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,7 +8167,7 @@
         <v>44217</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8223,7 +8224,7 @@
         <v>44230</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8280,7 +8281,7 @@
         <v>44239</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8337,7 +8338,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8400,7 @@
         <v>44259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8457,7 @@
         <v>44265</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8514,7 @@
         <v>44277</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8571,7 @@
         <v>44279</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8628,7 @@
         <v>44308</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8685,7 @@
         <v>44327</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8742,7 @@
         <v>44337</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8799,7 @@
         <v>44344</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8856,7 @@
         <v>44351</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8913,7 @@
         <v>44355</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8970,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9027,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9083,7 +9084,7 @@
         <v>44418</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9140,7 +9141,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9197,7 +9198,7 @@
         <v>44431</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,7 +9255,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9311,7 +9312,7 @@
         <v>44445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9368,7 +9369,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9431,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9488,7 @@
         <v>44480</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9545,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9602,7 @@
         <v>44498</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9659,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9716,7 @@
         <v>44516</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9773,7 @@
         <v>44523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9830,7 @@
         <v>44529</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9887,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9944,7 @@
         <v>44530</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10000,7 +10001,7 @@
         <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10058,7 @@
         <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10115,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10171,7 +10172,7 @@
         <v>44550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,7 +10229,7 @@
         <v>44551</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10285,7 +10286,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10342,7 +10343,7 @@
         <v>44571</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10404,7 +10405,7 @@
         <v>44572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10461,7 +10462,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10524,7 @@
         <v>44578</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10580,7 +10581,7 @@
         <v>44582</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10643,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10700,7 @@
         <v>44592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10757,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10814,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10871,7 @@
         <v>44624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10928,7 @@
         <v>44627</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10985,7 @@
         <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11042,7 @@
         <v>44649</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11099,7 @@
         <v>44655</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11156,7 @@
         <v>44683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11213,7 @@
         <v>44699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11270,7 @@
         <v>44715</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11327,7 @@
         <v>44733</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11384,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11441,7 @@
         <v>44767</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11498,7 @@
         <v>44790</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11555,7 @@
         <v>44791</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11612,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11669,7 @@
         <v>44812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11726,7 @@
         <v>44813</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11783,7 @@
         <v>44823</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11840,7 @@
         <v>44825</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11902,7 @@
         <v>44830</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11959,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12016,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12072,7 +12073,7 @@
         <v>44840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12129,7 +12130,7 @@
         <v>44881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12186,7 +12187,7 @@
         <v>44882</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12243,7 +12244,7 @@
         <v>44891</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12301,7 @@
         <v>44899</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12357,7 +12358,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12414,7 +12415,7 @@
         <v>44900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12476,7 +12477,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12539,7 @@
         <v>44901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12596,7 @@
         <v>44903</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12653,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12710,7 @@
         <v>44924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12767,7 @@
         <v>44928</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12824,7 @@
         <v>44930</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12885,7 +12886,7 @@
         <v>44935</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12942,7 +12943,7 @@
         <v>44944</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12999,7 +13000,7 @@
         <v>44951</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13056,7 +13057,7 @@
         <v>44960</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13113,7 +13114,7 @@
         <v>44967</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13170,7 +13171,7 @@
         <v>44969</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13227,7 +13228,7 @@
         <v>44973</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13284,7 +13285,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13341,7 +13342,7 @@
         <v>44981</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13404,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13466,7 @@
         <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13523,7 @@
         <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13580,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13642,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13704,7 @@
         <v>44998</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13761,7 @@
         <v>45005</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13818,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13875,7 @@
         <v>45020</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13932,7 @@
         <v>45021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13989,7 @@
         <v>45041</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14046,7 @@
         <v>45058</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14103,7 @@
         <v>45063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14160,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14217,7 @@
         <v>45071</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14274,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14331,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14388,7 @@
         <v>45076</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14445,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14502,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14559,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14616,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14673,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14730,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14792,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14849,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14906,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14963,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15020,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15077,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15134,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15191,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43649</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44733</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44928</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45033</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,14 +1617,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 37727-2018</t>
+          <t>A 23401-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43334</v>
+        <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,21 +1667,49 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/artfynd/A 23401-2023.xlsx", "A 23401-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/kartor/A 23401-2023.png", "A 23401-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomål/A 23401-2023.docx", "A 23401-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/klagomålsmail/A 23401-2023.docx", "A 23401-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsyn/A 23401-2023.docx", "A 23401-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UDDEVALLA/tillsynsmail/A 23401-2023.docx", "A 23401-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45008-2018</t>
+          <t>A 37727-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43361</v>
+        <v>43334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,7 +1722,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,14 +1759,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50862-2018</t>
+          <t>A 45008-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43381</v>
+        <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1751,7 +1779,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,14 +1816,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51886-2018</t>
+          <t>A 50862-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43385</v>
+        <v>43381</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1808,7 +1836,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1845,14 +1873,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 52501-2018</t>
+          <t>A 51886-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43388</v>
+        <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1865,7 +1893,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1902,14 +1930,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55074-2018</t>
+          <t>A 52501-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43396</v>
+        <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1922,7 +1950,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1959,14 +1987,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 55071-2018</t>
+          <t>A 55074-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1979,7 +2007,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2016,14 +2044,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61307-2018</t>
+          <t>A 55071-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43424</v>
+        <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2036,7 +2064,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2073,14 +2101,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 66585-2018</t>
+          <t>A 61307-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43430</v>
+        <v>43424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2121,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2130,14 +2158,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 63966-2018</t>
+          <t>A 66585-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2150,7 +2178,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2187,14 +2215,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 67151-2018</t>
+          <t>A 63966-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43438</v>
+        <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,13 +2234,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2249,14 +2272,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 67143-2018</t>
+          <t>A 67151-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2268,8 +2291,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2306,14 +2334,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 68496-2018</t>
+          <t>A 67143-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43443</v>
+        <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2354,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>14.1</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2363,14 +2391,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 69348-2018</t>
+          <t>A 68496-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43446</v>
+        <v>43443</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2411,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>14.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2420,14 +2448,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70741-2018</t>
+          <t>A 69348-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43451</v>
+        <v>43446</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2468,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2477,14 +2505,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 71104-2018</t>
+          <t>A 70741-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43452</v>
+        <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2497,7 +2525,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2534,14 +2562,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 71561-2018</t>
+          <t>A 71104-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2554,7 +2582,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2591,14 +2619,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 71988-2018</t>
+          <t>A 71561-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43455</v>
+        <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2611,7 +2639,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2648,14 +2676,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 72377-2018</t>
+          <t>A 71988-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43461</v>
+        <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2668,7 +2696,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2705,14 +2733,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27-2019</t>
+          <t>A 72377-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43467</v>
+        <v>43461</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2725,7 +2753,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2762,14 +2790,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1852-2019</t>
+          <t>A 27-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43474</v>
+        <v>43467</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2782,7 +2810,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2819,14 +2847,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3044-2019</t>
+          <t>A 1852-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43479</v>
+        <v>43474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2839,7 +2867,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2876,14 +2904,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3992-2019</t>
+          <t>A 3044-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43482</v>
+        <v>43479</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2896,7 +2924,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2933,14 +2961,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6153-2019</t>
+          <t>A 3992-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43486</v>
+        <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2953,7 +2981,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2990,14 +3018,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 6617-2019</t>
+          <t>A 6153-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3009,13 +3037,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3052,14 +3075,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5139-2019</t>
+          <t>A 6617-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3071,8 +3094,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3109,14 +3137,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5157-2019</t>
+          <t>A 5139-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3129,7 +3157,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3166,14 +3194,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5138-2019</t>
+          <t>A 5157-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3186,7 +3214,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3223,14 +3251,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8231-2019</t>
+          <t>A 5138-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43501</v>
+        <v>43488</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3243,7 +3271,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3280,14 +3308,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9647-2019</t>
+          <t>A 8231-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43508</v>
+        <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3300,7 +3328,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3337,14 +3365,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10362-2019</t>
+          <t>A 9647-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43511</v>
+        <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3357,7 +3385,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3394,14 +3422,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11358-2019</t>
+          <t>A 10362-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43517</v>
+        <v>43511</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3414,7 +3442,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3451,14 +3479,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11422-2019</t>
+          <t>A 11358-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3471,7 +3499,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3508,14 +3536,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13720-2019</t>
+          <t>A 11422-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43531</v>
+        <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3528,7 +3556,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3565,14 +3593,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14363-2019</t>
+          <t>A 13720-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43536</v>
+        <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3585,7 +3613,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>33.3</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3622,14 +3650,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16243-2019</t>
+          <t>A 14363-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43545</v>
+        <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3642,7 +3670,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>33.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3679,14 +3707,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16241-2019</t>
+          <t>A 16243-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3699,7 +3727,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3736,14 +3764,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17625-2019</t>
+          <t>A 16241-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43556</v>
+        <v>43545</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3756,7 +3784,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3793,14 +3821,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18487-2019</t>
+          <t>A 17625-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43559</v>
+        <v>43556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3813,7 +3841,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3850,14 +3878,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19957-2019</t>
+          <t>A 18487-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43569</v>
+        <v>43559</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3870,7 +3898,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3907,14 +3935,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20624-2019</t>
+          <t>A 19957-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43572</v>
+        <v>43569</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3927,7 +3955,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>16.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3964,14 +3992,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20830-2019</t>
+          <t>A 20624-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43574</v>
+        <v>43572</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3984,7 +4012,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>16.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4021,14 +4049,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22967-2019</t>
+          <t>A 20830-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43591</v>
+        <v>43574</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4041,7 +4069,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4078,14 +4106,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22984-2019</t>
+          <t>A 22967-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4098,7 +4126,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4135,14 +4163,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24045-2019</t>
+          <t>A 22984-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43598</v>
+        <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4192,14 +4220,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24050-2019</t>
+          <t>A 24045-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4212,7 +4240,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4249,14 +4277,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24026-2019</t>
+          <t>A 24050-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4269,7 +4297,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4306,14 +4334,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24681-2019</t>
+          <t>A 24026-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43601</v>
+        <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4326,7 +4354,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4363,14 +4391,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27286-2019</t>
+          <t>A 24681-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43616</v>
+        <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4383,7 +4411,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4420,14 +4448,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27520-2019</t>
+          <t>A 27286-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43619</v>
+        <v>43616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4440,7 +4468,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4477,14 +4505,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30852-2019</t>
+          <t>A 27520-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43636</v>
+        <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4497,7 +4525,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4534,14 +4562,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31216-2019</t>
+          <t>A 30852-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43640</v>
+        <v>43636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4554,7 +4582,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4591,14 +4619,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33991-2019</t>
+          <t>A 31216-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43654</v>
+        <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4611,7 +4639,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4648,14 +4676,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35947-2019</t>
+          <t>A 33991-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43665</v>
+        <v>43654</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4668,7 +4696,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4705,14 +4733,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35809-2019</t>
+          <t>A 35947-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4725,7 +4753,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4762,14 +4790,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41634-2019</t>
+          <t>A 35809-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43696</v>
+        <v>43665</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,13 +4809,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>14.1</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4824,14 +4847,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40987-2019</t>
+          <t>A 41634-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,8 +4866,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>14.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4881,14 +4909,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45823-2019</t>
+          <t>A 40987-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43717</v>
+        <v>43697</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4901,7 +4929,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4938,14 +4966,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48341-2019</t>
+          <t>A 45823-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43726</v>
+        <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4958,7 +4986,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4995,14 +5023,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49341-2019</t>
+          <t>A 48341-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43731</v>
+        <v>43726</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5015,7 +5043,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5052,14 +5080,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49929-2019</t>
+          <t>A 49341-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43733</v>
+        <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5100,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5109,14 +5137,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49930-2019</t>
+          <t>A 49929-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5129,7 +5157,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5166,14 +5194,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52198-2019</t>
+          <t>A 49930-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43735</v>
+        <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5186,7 +5214,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5223,14 +5251,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55315-2019</t>
+          <t>A 52198-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43756</v>
+        <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5243,7 +5271,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5280,14 +5308,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62953-2019</t>
+          <t>A 55315-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43790</v>
+        <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5300,7 +5328,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5337,14 +5365,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63590-2019</t>
+          <t>A 62953-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43795</v>
+        <v>43790</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5394,14 +5422,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 65732-2019</t>
+          <t>A 63590-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43804</v>
+        <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5414,7 +5442,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5451,14 +5479,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 66797-2019</t>
+          <t>A 65732-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43810</v>
+        <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5471,7 +5499,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5508,14 +5536,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 67349-2019</t>
+          <t>A 66797-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43812</v>
+        <v>43810</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5528,7 +5556,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5565,14 +5593,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 67831-2019</t>
+          <t>A 67349-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43815</v>
+        <v>43812</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5585,7 +5613,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5622,14 +5650,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2245-2020</t>
+          <t>A 67831-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43846</v>
+        <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5642,7 +5670,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5679,14 +5707,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2230-2020</t>
+          <t>A 2245-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,13 +5726,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5741,14 +5764,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3040-2020</t>
+          <t>A 2230-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43851</v>
+        <v>43846</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,8 +5783,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5798,14 +5826,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5862-2020</t>
+          <t>A 3040-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43864</v>
+        <v>43851</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5817,13 +5845,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5860,14 +5883,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6432-2020</t>
+          <t>A 5862-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,8 +5902,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5917,14 +5945,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8857-2020</t>
+          <t>A 6432-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43878</v>
+        <v>43866</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5965,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5974,14 +6002,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10177-2020</t>
+          <t>A 8857-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +6022,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6031,14 +6059,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11319-2020</t>
+          <t>A 10177-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43892</v>
+        <v>43887</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6079,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6088,14 +6116,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12787-2020</t>
+          <t>A 11319-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6136,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6145,14 +6173,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13993-2020</t>
+          <t>A 12787-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,13 +6192,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6207,14 +6230,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13960-2020</t>
+          <t>A 13993-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43906</v>
+        <v>43899</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6226,8 +6249,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6264,14 +6292,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14297-2020</t>
+          <t>A 13960-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6284,7 +6312,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6321,14 +6349,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17770-2020</t>
+          <t>A 14297-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43924</v>
+        <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6341,7 +6369,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6378,14 +6406,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18410-2020</t>
+          <t>A 17770-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6398,7 +6426,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6435,14 +6463,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21281-2020</t>
+          <t>A 18410-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6454,13 +6482,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6497,14 +6520,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 21622-2020</t>
+          <t>A 21281-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6522,7 +6545,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6559,14 +6582,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27477-2020</t>
+          <t>A 21622-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43991</v>
+        <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6578,8 +6601,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6616,14 +6644,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28258-2020</t>
+          <t>A 27477-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6636,7 +6664,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6673,14 +6701,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29914-2020</t>
+          <t>A 28258-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44006</v>
+        <v>43998</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6693,7 +6721,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6730,14 +6758,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31068-2020</t>
+          <t>A 29914-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44012</v>
+        <v>44006</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6750,7 +6778,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6787,14 +6815,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31220-2020</t>
+          <t>A 31068-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6807,7 +6835,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6844,14 +6872,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31066-2020</t>
+          <t>A 31220-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6864,7 +6892,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6901,14 +6929,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32423-2020</t>
+          <t>A 31066-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44018</v>
+        <v>44012</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6921,7 +6949,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6958,14 +6986,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32420-2020</t>
+          <t>A 32423-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6978,7 +7006,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7015,14 +7043,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34824-2020</t>
+          <t>A 32420-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44036</v>
+        <v>44018</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7035,7 +7063,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7072,14 +7100,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35631-2020</t>
+          <t>A 34824-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44046</v>
+        <v>44036</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7092,7 +7120,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7129,14 +7157,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38216-2020</t>
+          <t>A 35631-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44060</v>
+        <v>44046</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7177,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7186,14 +7214,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41780-2020</t>
+          <t>A 38216-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44074</v>
+        <v>44060</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7206,7 +7234,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7243,14 +7271,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50483-2020</t>
+          <t>A 41780-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7263,7 +7291,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7300,14 +7328,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55938-2020</t>
+          <t>A 50483-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44133</v>
+        <v>44104</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7320,7 +7348,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7357,14 +7385,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59085-2020</t>
+          <t>A 55938-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44147</v>
+        <v>44133</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7377,7 +7405,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7414,14 +7442,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60954-2020</t>
+          <t>A 59085-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44154</v>
+        <v>44147</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7434,7 +7462,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7471,14 +7499,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62643-2020</t>
+          <t>A 60954-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44161</v>
+        <v>44154</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7491,7 +7519,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7528,14 +7556,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 65325-2020</t>
+          <t>A 62643-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44168</v>
+        <v>44161</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7548,7 +7576,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7585,14 +7613,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 65328-2020</t>
+          <t>A 65325-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7633,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7642,14 +7670,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 65194-2020</t>
+          <t>A 65328-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7690,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7699,14 +7727,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 65909-2020</t>
+          <t>A 65194-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44175</v>
+        <v>44169</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7747,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7756,14 +7784,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 66488-2020</t>
+          <t>A 65909-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7804,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>13.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7813,14 +7841,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 66487-2020</t>
+          <t>A 66488-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7861,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>13.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7870,14 +7898,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 67265-2020</t>
+          <t>A 66487-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44181</v>
+        <v>44177</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7918,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7927,14 +7955,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 797-2021</t>
+          <t>A 67265-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44204</v>
+        <v>44181</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7984,14 +8012,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 796-2021</t>
+          <t>A 797-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8032,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8041,14 +8069,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2165-2021</t>
+          <t>A 796-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44210</v>
+        <v>44204</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8089,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8098,14 +8126,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2370-2021</t>
+          <t>A 2165-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8117,13 +8145,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8160,14 +8183,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 3125-2021</t>
+          <t>A 2370-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8179,8 +8202,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8217,14 +8245,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5483-2021</t>
+          <t>A 3125-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44230</v>
+        <v>44217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8237,7 +8265,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8274,14 +8302,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7459-2021</t>
+          <t>A 5483-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8294,7 +8322,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8331,14 +8359,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9790-2021</t>
+          <t>A 7459-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44251</v>
+        <v>44239</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8350,13 +8378,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8393,14 +8416,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 10766-2021</t>
+          <t>A 9790-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44259</v>
+        <v>44251</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8412,8 +8435,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8450,14 +8478,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11850-2021</t>
+          <t>A 10766-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44265</v>
+        <v>44259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8470,7 +8498,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8507,14 +8535,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13908-2021</t>
+          <t>A 11850-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8527,7 +8555,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8564,14 +8592,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14411-2021</t>
+          <t>A 13908-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8584,7 +8612,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8621,14 +8649,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18885-2021</t>
+          <t>A 14411-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44308</v>
+        <v>44279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8641,7 +8669,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8678,14 +8706,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 22719-2021</t>
+          <t>A 18885-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44327</v>
+        <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8698,7 +8726,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8735,14 +8763,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 24283-2021</t>
+          <t>A 22719-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44337</v>
+        <v>44327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8755,7 +8783,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8792,14 +8820,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25901-2021</t>
+          <t>A 24283-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44344</v>
+        <v>44337</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8812,7 +8840,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8849,14 +8877,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27494-2021</t>
+          <t>A 25901-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44351</v>
+        <v>44344</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8869,7 +8897,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8906,14 +8934,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28186-2021</t>
+          <t>A 27494-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8926,7 +8954,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8963,14 +8991,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 33332-2021</t>
+          <t>A 28186-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44377</v>
+        <v>44355</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8983,7 +9011,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9020,14 +9048,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34584-2021</t>
+          <t>A 33332-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9068,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9077,14 +9105,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 40037-2021</t>
+          <t>A 34584-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44418</v>
+        <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9125,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9134,14 +9162,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 40110-2021</t>
+          <t>A 40037-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9182,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>10.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9191,14 +9219,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43170-2021</t>
+          <t>A 40110-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44431</v>
+        <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9239,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9248,14 +9276,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43173-2021</t>
+          <t>A 43170-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9268,7 +9296,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9305,14 +9333,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46548-2021</t>
+          <t>A 43173-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44445</v>
+        <v>44431</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9325,7 +9353,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9362,14 +9390,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48088-2021</t>
+          <t>A 46548-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9381,13 +9409,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9424,14 +9447,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54440-2021</t>
+          <t>A 48088-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44472</v>
+        <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,8 +9466,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9481,14 +9509,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56650-2021</t>
+          <t>A 54440-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44480</v>
+        <v>44472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9529,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9538,14 +9566,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58958-2021</t>
+          <t>A 56650-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44489</v>
+        <v>44480</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9586,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9595,14 +9623,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61334-2021</t>
+          <t>A 58958-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44498</v>
+        <v>44489</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9643,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9652,14 +9680,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 63878-2021</t>
+          <t>A 61334-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9709,14 +9737,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 65457-2021</t>
+          <t>A 63878-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44516</v>
+        <v>44509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9757,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9766,14 +9794,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 67260-2021</t>
+          <t>A 65457-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9814,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9823,14 +9851,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 68704-2021</t>
+          <t>A 67260-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44529</v>
+        <v>44523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9871,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9880,14 +9908,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 68702-2021</t>
+          <t>A 68704-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9928,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9937,14 +9965,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 68950-2021</t>
+          <t>A 68702-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9985,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>11.8</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9994,14 +10022,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 69779-2021</t>
+          <t>A 68950-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44532</v>
+        <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10042,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>11.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10051,14 +10079,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 70494-2021</t>
+          <t>A 69779-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10099,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10108,14 +10136,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 70491-2021</t>
+          <t>A 70494-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10156,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10165,14 +10193,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 73007-2021</t>
+          <t>A 70491-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44550</v>
+        <v>44536</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10213,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10222,14 +10250,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 73437-2021</t>
+          <t>A 73007-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10270,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10279,14 +10307,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 73487-2021</t>
+          <t>A 73437-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10327,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10336,14 +10364,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 835-2022</t>
+          <t>A 73487-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44571</v>
+        <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10355,13 +10383,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10398,14 +10421,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1346-2022</t>
+          <t>A 835-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10417,8 +10440,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10455,14 +10483,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1156-2022</t>
+          <t>A 1346-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10474,13 +10502,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10517,14 +10540,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2306-2022</t>
+          <t>A 1156-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,8 +10559,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10574,14 +10602,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3077-2022</t>
+          <t>A 2306-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,13 +10621,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10636,14 +10659,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3562-2022</t>
+          <t>A 3077-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,8 +10678,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10693,14 +10721,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4639-2022</t>
+          <t>A 3562-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10713,7 +10741,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10750,14 +10778,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6063-2022</t>
+          <t>A 4639-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44599</v>
+        <v>44592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10770,7 +10798,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>14.4</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10807,14 +10835,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6875-2022</t>
+          <t>A 6063-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44602</v>
+        <v>44599</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10827,7 +10855,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>9.6</v>
+        <v>14.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10864,14 +10892,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 10684-2022</t>
+          <t>A 6875-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44624</v>
+        <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10884,7 +10912,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10921,14 +10949,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10864-2022</t>
+          <t>A 10684-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44627</v>
+        <v>44624</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10941,7 +10969,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10978,14 +11006,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11770-2022</t>
+          <t>A 10864-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44634</v>
+        <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10998,7 +11026,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11035,14 +11063,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13737-2022</t>
+          <t>A 11770-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44649</v>
+        <v>44634</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11055,7 +11083,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11092,14 +11120,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14530-2022</t>
+          <t>A 13737-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44655</v>
+        <v>44649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11112,7 +11140,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11149,14 +11177,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17965-2022</t>
+          <t>A 14530-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44683</v>
+        <v>44655</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11169,7 +11197,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11206,14 +11234,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20364-2022</t>
+          <t>A 17965-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44699</v>
+        <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11226,7 +11254,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11263,14 +11291,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22923-2022</t>
+          <t>A 20364-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44715</v>
+        <v>44699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11283,7 +11311,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11320,14 +11348,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 25811-2022</t>
+          <t>A 22923-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44733</v>
+        <v>44715</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11340,7 +11368,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11377,14 +11405,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 25813-2022</t>
+          <t>A 25811-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11397,7 +11425,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11434,14 +11462,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 30871-2022</t>
+          <t>A 25813-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44767</v>
+        <v>44733</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11454,7 +11482,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>7.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11491,14 +11519,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 33860-2022</t>
+          <t>A 30871-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44790</v>
+        <v>44767</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11511,7 +11539,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11548,14 +11576,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 34232-2022</t>
+          <t>A 33860-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11568,7 +11596,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11605,14 +11633,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34555-2022</t>
+          <t>A 34232-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44794</v>
+        <v>44791</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11625,7 +11653,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11662,14 +11690,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 39070-2022</t>
+          <t>A 34555-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44812</v>
+        <v>44794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11682,7 +11710,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11719,14 +11747,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38557-2022</t>
+          <t>A 39070-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11739,7 +11767,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11776,14 +11804,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 40571-2022</t>
+          <t>A 38557-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44823</v>
+        <v>44813</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,14 +11861,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41292-2022</t>
+          <t>A 40571-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44825</v>
+        <v>44823</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,13 +11880,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11895,14 +11918,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 41964-2022</t>
+          <t>A 41292-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44830</v>
+        <v>44825</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11914,8 +11937,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11952,14 +11980,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 41965-2022</t>
+          <t>A 41964-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11972,7 +12000,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12009,14 +12037,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 43276-2022</t>
+          <t>A 41965-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44834</v>
+        <v>44830</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12029,7 +12057,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12066,14 +12094,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 44541-2022</t>
+          <t>A 43276-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44840</v>
+        <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12086,7 +12114,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12123,14 +12151,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 54047-2022</t>
+          <t>A 44541-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44881</v>
+        <v>44840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12143,7 +12171,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12180,14 +12208,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54402-2022</t>
+          <t>A 54047-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12200,7 +12228,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12237,14 +12265,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56428-2022</t>
+          <t>A 54402-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44891</v>
+        <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12285,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12294,14 +12322,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 59235-2022</t>
+          <t>A 56428-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44899</v>
+        <v>44891</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12314,7 +12342,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12351,14 +12379,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59230-2022</t>
+          <t>A 59235-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12371,7 +12399,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12408,14 +12436,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59474-2022</t>
+          <t>A 59230-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44900</v>
+        <v>44899</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12427,13 +12455,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12470,14 +12493,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59466-2022</t>
+          <t>A 59474-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12518,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12532,14 +12555,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58326-2022</t>
+          <t>A 59466-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44901</v>
+        <v>44900</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12551,8 +12574,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12589,14 +12617,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58930-2022</t>
+          <t>A 58326-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44903</v>
+        <v>44901</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12609,7 +12637,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12646,14 +12674,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58934-2022</t>
+          <t>A 58930-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12666,7 +12694,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12703,14 +12731,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1956-2023</t>
+          <t>A 58934-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44924</v>
+        <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12723,7 +12751,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12760,14 +12788,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 240-2023</t>
+          <t>A 1956-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44928</v>
+        <v>44924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12780,7 +12808,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12817,14 +12845,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 498-2023</t>
+          <t>A 240-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44930</v>
+        <v>44928</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12836,13 +12864,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12879,14 +12902,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1051-2023</t>
+          <t>A 498-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12898,8 +12921,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12936,14 +12964,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2661-2023</t>
+          <t>A 1051-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44944</v>
+        <v>44935</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12984,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12993,14 +13021,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3839-2023</t>
+          <t>A 2661-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44951</v>
+        <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13041,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13050,14 +13078,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5557-2023</t>
+          <t>A 3839-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44960</v>
+        <v>44951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13098,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13107,14 +13135,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 6887-2023</t>
+          <t>A 5557-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44967</v>
+        <v>44960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13155,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13164,14 +13192,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7755-2023</t>
+          <t>A 6887-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44969</v>
+        <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13212,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13221,14 +13249,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 7771-2023</t>
+          <t>A 7755-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44973</v>
+        <v>44969</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13269,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13278,14 +13306,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7770-2023</t>
+          <t>A 7771-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13326,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13335,14 +13363,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10426-2023</t>
+          <t>A 7770-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44981</v>
+        <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13354,13 +13382,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13397,14 +13420,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10423-2023</t>
+          <t>A 10426-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13422,7 +13445,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13459,14 +13482,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9797-2023</t>
+          <t>A 10423-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44984</v>
+        <v>44981</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13478,8 +13501,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13516,14 +13544,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 11720-2023</t>
+          <t>A 9797-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44992</v>
+        <v>44984</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13564,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13573,14 +13601,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11770-2023</t>
+          <t>A 11720-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44993</v>
+        <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13592,13 +13620,8 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13635,14 +13658,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 11778-2023</t>
+          <t>A 11770-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13660,7 +13683,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13697,14 +13720,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 12169-2023</t>
+          <t>A 11778-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44998</v>
+        <v>44993</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,8 +13739,13 @@
           <t>UDDEVALLA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13754,14 +13782,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13381-2023</t>
+          <t>A 12169-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13802,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13811,14 +13839,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13547-2023</t>
+          <t>A 13381-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45006</v>
+        <v>45005</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13859,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13868,14 +13896,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 15677-2023</t>
+          <t>A 13547-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13916,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>16</v>
+        <v>2.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13925,14 +13953,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15634-2023</t>
+          <t>A 15677-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13973,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13982,14 +14010,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 18543-2023</t>
+          <t>A 15634-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45041</v>
+        <v>45021</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14030,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14039,14 +14067,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20703-2023</t>
+          <t>A 18543-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45058</v>
+        <v>45041</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14087,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>10.7</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14096,14 +14124,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21581-2023</t>
+          <t>A 20703-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45063</v>
+        <v>45058</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14144,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14153,14 +14181,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21584-2023</t>
+          <t>A 21581-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14201,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14210,14 +14238,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 22603-2023</t>
+          <t>A 21584-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45071</v>
+        <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14258,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14267,14 +14295,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 23206-2023</t>
+          <t>A 22603-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14315,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14324,14 +14352,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23210-2023</t>
+          <t>A 23206-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14372,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14381,14 +14409,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 23395-2023</t>
+          <t>A 23210-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45076</v>
+        <v>45071</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14429,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>12.2</v>
+        <v>4.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14438,14 +14466,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23383-2023</t>
+          <t>A 23395-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14486,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>12.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14495,14 +14523,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 23401-2023</t>
+          <t>A 23383-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14543,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14559,7 +14587,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14616,7 +14644,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14673,7 +14701,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14730,7 +14758,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14792,7 +14820,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14849,7 +14877,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14906,7 +14934,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14963,7 +14991,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15020,7 +15048,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15077,7 +15105,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15134,7 +15162,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15191,7 +15219,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43649</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44733</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44928</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45033</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43381</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43443</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43446</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43461</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43467</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43479</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43488</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43511</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43545</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43559</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43569</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43572</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43574</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43654</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43665</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43697</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43726</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43790</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43810</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43812</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43846</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43851</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43864</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43878</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43887</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43892</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43899</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43906</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43928</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43955</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43991</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43998</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44006</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44012</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44018</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44036</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44046</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44060</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44104</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44133</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44147</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44154</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44161</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44168</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44169</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44175</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44177</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44181</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44204</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44210</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44211</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44230</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44239</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44251</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44265</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44337</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44344</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44351</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44355</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44377</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44431</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>44480</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>44489</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44498</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44516</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44529</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44536</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44550</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44578</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44582</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44585</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44599</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44624</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44634</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44655</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44715</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44733</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44767</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44790</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44791</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44813</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44823</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44825</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44830</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44891</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44899</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>44900</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>44901</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>44928</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44930</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44935</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44969</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44981</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44984</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44993</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45005</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45021</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45041</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45058</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45071</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43649</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44733</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44928</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45033</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43381</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43443</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43446</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43461</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43467</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43479</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43488</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43511</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43545</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43559</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43569</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43572</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43574</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43654</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43665</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43697</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43726</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43790</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43810</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43812</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43846</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43851</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43864</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43878</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43887</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43892</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43899</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43906</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43928</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43955</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43991</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43998</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44006</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44012</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44018</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44036</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44046</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44060</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44104</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44133</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44147</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44154</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44161</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44168</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44169</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44175</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44177</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44181</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44204</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44210</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44211</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44230</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44239</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44251</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44265</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44337</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44344</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44351</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44355</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44377</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44431</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>44480</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>44489</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44498</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44516</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44529</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44536</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44550</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44578</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44582</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44585</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44599</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44624</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44634</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44655</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44715</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44733</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44767</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44790</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44791</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44813</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44823</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44825</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44830</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44891</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44899</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>44900</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>44901</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>44928</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44930</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44935</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44969</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44981</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44984</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44993</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45005</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45021</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45041</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45058</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45071</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -572,7 +572,7 @@
         <v>43726</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43580</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45106</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45107</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43649</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44733</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44928</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45033</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43334</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43381</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43430</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43443</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43446</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43455</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43461</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43467</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43479</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43488</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43508</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43511</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43545</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43559</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43569</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43572</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43574</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43598</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43654</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43665</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43697</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43726</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43733</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43790</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43795</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43810</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43812</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43846</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43851</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43864</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43878</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43887</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43892</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43899</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43906</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43928</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43955</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43991</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43998</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>44006</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>44012</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44018</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44018</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>44036</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44046</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>44060</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44104</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>44133</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>44147</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44154</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>44161</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>44168</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>44168</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44169</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44175</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>44177</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44177</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44181</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44204</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44210</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44211</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44230</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44239</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44251</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44265</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44327</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44337</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44344</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44351</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44355</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44377</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44431</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>44480</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>44489</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44498</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44516</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44529</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44536</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44536</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44550</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44551</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>44572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44578</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44582</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44585</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44599</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44602</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44624</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44634</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44655</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44715</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44733</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44733</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44767</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44790</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44791</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44813</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44823</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44825</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44830</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44830</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>44891</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44899</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44899</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>44900</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>44901</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44903</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>44928</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44930</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44935</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44944</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44960</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44967</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44969</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44973</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44981</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44981</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44984</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44993</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45005</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45006</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45020</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45021</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45041</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45058</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45071</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45076</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45076</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>45092</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45093</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45093</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>45096</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45121</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45145</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
